--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1764.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1764.xlsx
@@ -354,10 +354,10 @@
         <v>1.058383659764557</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.639314908561314</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1764.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1764.xlsx
@@ -348,10 +348,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6553914800586517</v>
+        <v>0.9237794876098633</v>
       </c>
       <c r="B1">
-        <v>1.058383659764557</v>
+        <v>1.235646843910217</v>
       </c>
       <c r="C1">
         <v>15</v>
@@ -360,7 +360,7 @@
         <v>15</v>
       </c>
       <c r="E1">
-        <v>1.639314908561314</v>
+        <v>0.9638873934745789</v>
       </c>
     </row>
   </sheetData>
